--- a/params/interface.xlsx
+++ b/params/interface.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python_Jobs\api_autotest1\api_autotestpro\params\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jctong\Desktop\new1\ApiTest\params\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A4B5590-9093-49F3-9B4A-E74EB7240DD6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3978D7A-8E56-447B-952A-96CB1B8302E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" xr2:uid="{46AD79BF-D8DA-4949-9F52-0431D02E7E6B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="LoginCase" sheetId="1" r:id="rId1"/>
+    <sheet name="Test_" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029" concurrentCalc="0"/>
   <extLst>
@@ -30,76 +31,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
-  <si>
-    <t>项目</t>
-  </si>
-  <si>
-    <t>模块</t>
-  </si>
-  <si>
-    <t>用例id</t>
-  </si>
-  <si>
-    <t>用例描述</t>
-  </si>
-  <si>
-    <t>请求url</t>
-  </si>
-  <si>
-    <t>请求方式</t>
-  </si>
-  <si>
-    <t>请求数据</t>
-  </si>
-  <si>
-    <t>预期结果</t>
-  </si>
-  <si>
-    <t>返回报文</t>
-  </si>
-  <si>
-    <t>测试结果</t>
-  </si>
-  <si>
-    <t>测试人员</t>
-  </si>
-  <si>
-    <t>慧养猪</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录</t>
-  </si>
-  <si>
-    <t>login_1</t>
-  </si>
-  <si>
-    <t>正常登录</t>
-  </si>
-  <si>
-    <t>http://web.test4.smartpig.bajietong.net/api/v2/base/account/login</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>POST</t>
-  </si>
-  <si>
-    <t>{
-        "error_code": 0,
-        "login_info": {
-                "login_time": "20190227175014",
-                "sign": "5b5882cf96190632fac426ed9965c180",
-                "userId": 9786
-        }
-}</t>
-  </si>
-  <si>
-    <t>成功</t>
-  </si>
-  <si>
-    <t>请求头</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>{"User-Agent":"Mozilla/5.0 (Windows NT 10.0; WOW64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/73.0.3683.86 Safari/537.36"}</t>
@@ -118,8 +52,44 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>method</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>data</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>expect_res</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>headers</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>用户名或密码错误</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>case_name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>url</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_login_success</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://web.test4.smartpig.bajietong.net/api/v2/base/account/login</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_login_fail</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -160,12 +130,18 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -188,9 +164,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -505,134 +479,108 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5681F113-1F11-4CB9-9DEA-F127B9323470}">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="19.88671875" customWidth="1"/>
-    <col min="5" max="5" width="5.88671875" customWidth="1"/>
-    <col min="6" max="6" width="25.21875" customWidth="1"/>
-    <col min="7" max="7" width="31.6640625" customWidth="1"/>
-    <col min="8" max="8" width="75.44140625" customWidth="1"/>
-    <col min="9" max="9" width="37.5546875" customWidth="1"/>
-    <col min="10" max="10" width="70.5546875" customWidth="1"/>
+    <col min="1" max="1" width="20.44140625" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" customWidth="1"/>
+    <col min="3" max="3" width="7.88671875" customWidth="1"/>
+    <col min="4" max="4" width="45.21875" customWidth="1"/>
+    <col min="5" max="5" width="75.44140625" customWidth="1"/>
+    <col min="6" max="6" width="37.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>18</v>
-      </c>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D6" s="2"/>
+      <c r="F6" s="2"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>18</v>
-      </c>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E7" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E9" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="306" orientation="landscape" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BFB94C1-D2E0-4D61-BE39-BC125C059410}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/params/interface.xlsx
+++ b/params/interface.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jctong\Desktop\new1\ApiTest\params\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jctong\Desktop\API\ApiTest\params\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3978D7A-8E56-447B-952A-96CB1B8302E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7251A0E2-3B74-4963-8BAF-35F35B91C2E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" xr2:uid="{46AD79BF-D8DA-4949-9F52-0431D02E7E6B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{46AD79BF-D8DA-4949-9F52-0431D02E7E6B}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCase" sheetId="1" r:id="rId1"/>
-    <sheet name="Test_" sheetId="2" r:id="rId2"/>
+    <sheet name="LoginCase_DDT" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029" concurrentCalc="0"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="17">
   <si>
     <t>POST</t>
   </si>
@@ -90,6 +90,14 @@
   <si>
     <t>test_login_fail</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>msg</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>code</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -481,8 +489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5681F113-1F11-4CB9-9DEA-F127B9323470}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -492,7 +500,7 @@
     <col min="3" max="3" width="7.88671875" customWidth="1"/>
     <col min="4" max="4" width="45.21875" customWidth="1"/>
     <col min="5" max="5" width="75.44140625" customWidth="1"/>
-    <col min="6" max="6" width="37.5546875" customWidth="1"/>
+    <col min="6" max="6" width="22.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -557,7 +565,6 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D6" s="2"/>
-      <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E7" s="1"/>
@@ -574,12 +581,72 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BFB94C1-D2E0-4D61-BE39-BC125C059410}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="30" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" customWidth="1"/>
+    <col min="3" max="3" width="17.109375" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/params/interface.xlsx
+++ b/params/interface.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jctong\Desktop\API\ApiTest\params\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\桌面文档\API\ApiTest\params\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7251A0E2-3B74-4963-8BAF-35F35B91C2E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA72E096-A011-4C02-A14D-76D52CA2CDFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{46AD79BF-D8DA-4949-9F52-0431D02E7E6B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{46AD79BF-D8DA-4949-9F52-0431D02E7E6B}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCase" sheetId="1" r:id="rId1"/>
@@ -31,10 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="17">
-  <si>
-    <t>POST</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="50">
   <si>
     <t>{"User-Agent":"Mozilla/5.0 (Windows NT 10.0; WOW64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/73.0.3683.86 Safari/537.36"}</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -98,13 +95,144 @@
   <si>
     <t>code</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>result</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>expect</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"User-Agent":"Mozilla/5.0 (Windows NT 10.0; WOW64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/73.0.3683.86 Safari/537.37"}</t>
+  </si>
+  <si>
+    <t>login_fail</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>relation_data</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://web.test4.smartpig.bajietong.net/api/v2/base/account/login</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>depend_id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>depend_data</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>smartpig-001</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>smartpig-002</t>
+  </si>
+  <si>
+    <t>smartpig-003</t>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://web.test4.smartpig.bajietong.net/api/v2/event/pigletdemandplan/save</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>pigletdemandplan</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_pigletdemandplan</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>smartpig-004</t>
+  </si>
+  <si>
+    <t>run</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>yes</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>no</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"code":"SUCCESS"</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://web.test4.smartpig.bajietong.net/api/v2/event/pigletdemandplan/pagelist</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>postjson</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_pigletdemandplan_search</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>pigletdemandplan_search</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>login_success</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"companyId":"5f8e8bcc-c077-46f5-a6ae-d9cfa28bb763"</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>smartpig-005</t>
+  </si>
+  <si>
+    <t>yes</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_pigletdemandplan_delete</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://web.test4.smartpig.bajietong.net/api/v2/event/pigletdemandplan/del/</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"cancelToken":{"promise":{}}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>$.data.list[0].docNo</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>testresult</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,6 +265,30 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -161,24 +313,104 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -198,7 +430,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -487,163 +719,279 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5681F113-1F11-4CB9-9DEA-F127B9323470}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.44140625" customWidth="1"/>
-    <col min="2" max="2" width="12.109375" customWidth="1"/>
-    <col min="3" max="3" width="7.88671875" customWidth="1"/>
-    <col min="4" max="4" width="45.21875" customWidth="1"/>
-    <col min="5" max="5" width="75.44140625" customWidth="1"/>
-    <col min="6" max="6" width="22.88671875" customWidth="1"/>
+    <col min="1" max="2" width="13" customWidth="1"/>
+    <col min="3" max="3" width="28.625" customWidth="1"/>
+    <col min="4" max="4" width="35.625" customWidth="1"/>
+    <col min="5" max="5" width="17.625" customWidth="1"/>
+    <col min="6" max="6" width="36.125" customWidth="1"/>
+    <col min="7" max="7" width="23" customWidth="1"/>
+    <col min="8" max="8" width="15.25" customWidth="1"/>
+    <col min="9" max="9" width="17.25" customWidth="1"/>
+    <col min="10" max="10" width="9.125" customWidth="1"/>
+    <col min="11" max="11" width="22.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="D2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="K2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>2</v>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>9</v>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="D6" s="2"/>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" t="s">
+        <v>48</v>
+      </c>
+      <c r="K6" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E7" s="1"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E9" s="1"/>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="G8" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{94CCC38B-7252-405D-A61C-AB2E3E03B258}"/>
+    <hyperlink ref="D2" r:id="rId2" xr:uid="{281A44EC-CA6E-401A-B37A-5244CEFA35EE}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{6BE6D4A0-5E90-4F8B-ABCC-53A09DA3ED6F}"/>
+    <hyperlink ref="D5" r:id="rId4" xr:uid="{5A594869-BA64-4262-BDFF-AAA1733D2A65}"/>
+    <hyperlink ref="D6" r:id="rId5" xr:uid="{9ED5C1D9-7973-4064-B263-C0B7D1DB3B3D}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="306" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="306" orientation="landscape" r:id="rId6"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BFB94C1-D2E0-4D61-BE39-BC125C059410}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
-    <col min="2" max="2" width="15.21875" customWidth="1"/>
-    <col min="3" max="3" width="17.109375" customWidth="1"/>
+    <col min="2" max="2" width="15.25" customWidth="1"/>
+    <col min="3" max="3" width="17.125" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="5" max="5" width="18.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/params/interface.xlsx
+++ b/params/interface.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\桌面文档\API\ApiTest\params\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA72E096-A011-4C02-A14D-76D52CA2CDFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F16A605B-251D-4B3D-8288-A8B7DCF49DC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{46AD79BF-D8DA-4949-9F52-0431D02E7E6B}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="56">
   <si>
     <t>{"User-Agent":"Mozilla/5.0 (Windows NT 10.0; WOW64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/73.0.3683.86 Safari/537.36"}</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -220,12 +220,34 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>testresult</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://web.test4.smartpig.bajietong.net/api/v2/event/pigletdemandplan/save</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>smartpig-006</t>
+  </si>
+  <si>
+    <t>test_pigletdemandplan_edit</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>pigletdemandplan_edit</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"msg":"成功"</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>$.data.list[0].docNo</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>testresult</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$.data.list[0].uid</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -343,74 +365,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -430,7 +384,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -719,23 +673,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5681F113-1F11-4CB9-9DEA-F127B9323470}">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="13" customWidth="1"/>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="12.125" customWidth="1"/>
     <col min="3" max="3" width="28.625" customWidth="1"/>
-    <col min="4" max="4" width="35.625" customWidth="1"/>
+    <col min="4" max="4" width="81" customWidth="1"/>
     <col min="5" max="5" width="17.625" customWidth="1"/>
     <col min="6" max="6" width="36.125" customWidth="1"/>
     <col min="7" max="7" width="23" customWidth="1"/>
     <col min="8" max="8" width="15.25" customWidth="1"/>
     <col min="9" max="9" width="17.25" customWidth="1"/>
-    <col min="10" max="10" width="9.125" customWidth="1"/>
+    <col min="10" max="10" width="8" customWidth="1"/>
     <col min="11" max="11" width="22.875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -774,7 +729,7 @@
         <v>17</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -882,32 +837,58 @@
         <v>42</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="H6" t="s">
         <v>31</v>
       </c>
       <c r="I6" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="K6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K7" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="G8" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -916,10 +897,11 @@
     <hyperlink ref="D2" r:id="rId2" xr:uid="{281A44EC-CA6E-401A-B37A-5244CEFA35EE}"/>
     <hyperlink ref="D4" r:id="rId3" xr:uid="{6BE6D4A0-5E90-4F8B-ABCC-53A09DA3ED6F}"/>
     <hyperlink ref="D5" r:id="rId4" xr:uid="{5A594869-BA64-4262-BDFF-AAA1733D2A65}"/>
-    <hyperlink ref="D6" r:id="rId5" xr:uid="{9ED5C1D9-7973-4064-B263-C0B7D1DB3B3D}"/>
+    <hyperlink ref="D7" r:id="rId5" xr:uid="{9ED5C1D9-7973-4064-B263-C0B7D1DB3B3D}"/>
+    <hyperlink ref="D6" r:id="rId6" xr:uid="{AE495B42-AC97-4BB8-8230-C98E4D5421DC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="306" orientation="landscape" r:id="rId6"/>
+  <pageSetup paperSize="306" orientation="landscape" r:id="rId7"/>
 </worksheet>
 </file>
 

--- a/params/interface.xlsx
+++ b/params/interface.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\桌面文档\API\ApiTest\params\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F16A605B-251D-4B3D-8288-A8B7DCF49DC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE5A0628-7D84-4AB4-809C-6A2645EF2FD7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{46AD79BF-D8DA-4949-9F52-0431D02E7E6B}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCase" sheetId="1" r:id="rId1"/>
-    <sheet name="LoginCase_DDT" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="62">
   <si>
     <t>{"User-Agent":"Mozilla/5.0 (Windows NT 10.0; WOW64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/73.0.3683.86 Safari/537.36"}</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -41,14 +40,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>{"userName":"tongjc","password":"12687c51cdf79bcfbd19407adb36e410","verificationCode":"ds","cancelToken":{"promise":{}}}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"userName":"tongjc","password":"12687c51cd111f79bcfbd19407adb36e410","verificationCode":"ds","cancelToken":{"promise":{}}}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>method</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -57,10 +48,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>expect_res</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>headers</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -89,18 +76,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>msg</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>code</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>result</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>expect</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -112,10 +87,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>relation_data</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>http://web.test4.smartpig.bajietong.net/api/v2/base/account/login</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -200,53 +171,120 @@
     <t>smartpig-005</t>
   </si>
   <si>
+    <t>test_pigletdemandplan_delete</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://web.test4.smartpig.bajietong.net/api/v2/event/pigletdemandplan/del/</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"cancelToken":{"promise":{}}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>testresult</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://web.test4.smartpig.bajietong.net/api/v2/event/pigletdemandplan/save</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>smartpig-006</t>
+  </si>
+  <si>
+    <t>test_pigletdemandplan_edit</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>pigletdemandplan_edit</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"msg":"成功"</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>$.data.list[0].docNo</t>
+  </si>
+  <si>
+    <t>$.data.list[0].uid</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>testpoint</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>登录成功</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>登录失败</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>猪苗需求计划新增</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>猪苗需求计划查询</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>猪苗需求计划编辑</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>猪苗需求计划删除</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://web.test4.smartpig.bajietong.net/api/v2/bi/report/farmProdDay/view?orgId=5ab70e49-2a55-11e8-a56a-c81fbe729380&amp;orgType=farm&amp;beginDate=2020-04-21&amp;endDate=2020-04-21&amp;page=1&amp;pageSize=10&amp;get_time=1587434459276</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>smartpig-007</t>
+  </si>
+  <si>
     <t>yes</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>test_pigletdemandplan_delete</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://web.test4.smartpig.bajietong.net/api/v2/event/pigletdemandplan/del/</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>delete</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"cancelToken":{"promise":{}}}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>testresult</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://web.test4.smartpig.bajietong.net/api/v2/event/pigletdemandplan/save</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>smartpig-006</t>
-  </si>
-  <si>
-    <t>test_pigletdemandplan_edit</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>pigletdemandplan_edit</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"msg":"成功"</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>$.data.list[0].docNo</t>
-  </si>
-  <si>
-    <t>$.data.list[0].uid</t>
+    <t>test_farmProdDay_report</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>日报表查询</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"farmName":"夏津祖代场"</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -254,7 +292,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -311,6 +349,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -343,13 +387,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -365,6 +408,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -384,7 +495,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -673,10 +784,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5681F113-1F11-4CB9-9DEA-F127B9323470}">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -686,208 +797,249 @@
     <col min="3" max="3" width="28.625" customWidth="1"/>
     <col min="4" max="4" width="81" customWidth="1"/>
     <col min="5" max="5" width="17.625" customWidth="1"/>
-    <col min="6" max="6" width="36.125" customWidth="1"/>
-    <col min="7" max="7" width="23" customWidth="1"/>
+    <col min="6" max="6" width="46.25" customWidth="1"/>
+    <col min="7" max="7" width="38.125" customWidth="1"/>
     <col min="8" max="8" width="15.25" customWidth="1"/>
     <col min="9" max="9" width="17.25" customWidth="1"/>
-    <col min="10" max="10" width="8" customWidth="1"/>
+    <col min="10" max="10" width="18.625" customWidth="1"/>
     <col min="11" max="11" width="22.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="6" t="s">
+    <row r="1" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1" s="6" t="s">
+      <c r="G1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>48</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H2" s="1"/>
+      <c r="J2" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="K2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>19</v>
+      <c r="J3" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="G4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" t="s">
+        <v>51</v>
+      </c>
+      <c r="K4" t="s">
         <v>28</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K4" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
         <v>31</v>
       </c>
-      <c r="B5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>36</v>
+      <c r="D5" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
+      </c>
+      <c r="J5" t="s">
+        <v>52</v>
       </c>
       <c r="K5" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>49</v>
+        <v>43</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="H6" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="I6" t="s">
-        <v>55</v>
+        <v>47</v>
+      </c>
+      <c r="J6" t="s">
+        <v>53</v>
       </c>
       <c r="K6" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>45</v>
+        <v>36</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" t="s">
         <v>46</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H7" t="s">
-        <v>31</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>54</v>
       </c>
       <c r="K7" t="s">
-        <v>35</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J8" t="s">
+        <v>60</v>
+      </c>
+      <c r="K8" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -899,85 +1051,9 @@
     <hyperlink ref="D5" r:id="rId4" xr:uid="{5A594869-BA64-4262-BDFF-AAA1733D2A65}"/>
     <hyperlink ref="D7" r:id="rId5" xr:uid="{9ED5C1D9-7973-4064-B263-C0B7D1DB3B3D}"/>
     <hyperlink ref="D6" r:id="rId6" xr:uid="{AE495B42-AC97-4BB8-8230-C98E4D5421DC}"/>
+    <hyperlink ref="D8" r:id="rId7" xr:uid="{C9BA382E-B41A-4C56-8D9B-2F9040D640DC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="306" orientation="landscape" r:id="rId7"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BFB94C1-D2E0-4D61-BE39-BC125C059410}">
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="30" customWidth="1"/>
-    <col min="2" max="2" width="15.25" customWidth="1"/>
-    <col min="3" max="3" width="17.125" customWidth="1"/>
-    <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="18.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="306" orientation="landscape" r:id="rId8"/>
 </worksheet>
 </file>
--- a/params/interface.xlsx
+++ b/params/interface.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\桌面文档\API\ApiTest\params\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\desktop2\API\ApiTest\params\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE5A0628-7D84-4AB4-809C-6A2645EF2FD7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9F09D91-9F66-41D7-8ADC-B075DB11516D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{46AD79BF-D8DA-4949-9F52-0431D02E7E6B}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCase" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -495,7 +495,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -787,7 +787,7 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -907,7 +907,7 @@
         <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
         <v>23</v>
@@ -960,7 +960,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
         <v>43</v>
@@ -992,7 +992,7 @@
         <v>42</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
         <v>36</v>
